--- a/results/Models Comparison.xlsx
+++ b/results/Models Comparison.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Skin Permeation\Skin-Permeation\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B99E73-214B-4314-82FA-042FBB34E3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFF45B5-968B-4C4A-B3CB-DC4AE8EADB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -178,17 +178,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -204,6 +193,17 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -217,46 +217,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,13 +535,13 @@
   <dimension ref="C5:H13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -565,7 +559,7 @@
       <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -573,162 +567,162 @@
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="9">
         <v>15.85159</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>1.105507</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>0.56046399999999996</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>3.9814050000000001</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>-12.894212</v>
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="10">
         <v>0.29277700000000001</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="4">
         <v>0.38738299999999998</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="4">
         <v>0.178346</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="4">
         <v>0.54108900000000004</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="4">
         <v>0.74337500000000001</v>
       </c>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="11">
         <v>0.25854700000000003</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="5">
         <v>0.35332599999999997</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="5">
         <v>0.16334599999999999</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="5">
         <v>0.50847600000000004</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="5">
         <v>0.77337800000000001</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="10">
         <v>0.29000900000000002</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="4">
         <v>0.387768</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="4">
         <v>0.17983199999999999</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="4">
         <v>0.53852500000000003</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="4">
         <v>0.74580199999999996</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="10">
         <v>0.27591199999999999</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="4">
         <v>0.37426799999999999</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="4">
         <v>0.17597099999999999</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="4">
         <v>0.52527299999999999</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="4">
         <v>0.758158</v>
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="10">
         <v>0.28640500000000002</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="4">
         <v>0.38220599999999999</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="4">
         <v>0.178144</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="4">
         <v>0.53516799999999998</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="4">
         <v>0.74896099999999999</v>
       </c>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="10">
         <v>0.48276746834745998</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="4">
         <v>0.48291176151661602</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="4">
         <v>0.239405430413207</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="4">
         <v>0.69481470072779805</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="4">
         <v>0.57684535396968695</v>
       </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="10">
         <v>0.54985702755971</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="4">
         <v>0.65628934303919395</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="4">
         <v>0.33912662155203899</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="4">
         <v>0.74152345044489998</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="4">
         <v>6.88314618339258E-2</v>
       </c>
     </row>

--- a/results/Models Comparison.xlsx
+++ b/results/Models Comparison.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Skin Permeation\Skin-Permeation\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Skin Permeation\Skin-Permeation-Main\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFF45B5-968B-4C4A-B3CB-DC4AE8EADB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291D9925-76C0-4669-AD8D-81DF98AB022F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,12 +33,6 @@
     <t>MAE</t>
   </si>
   <si>
-    <t>MSE</t>
-  </si>
-  <si>
-    <t>MAPE</t>
-  </si>
-  <si>
     <t>RMSE</t>
   </si>
   <si>
@@ -82,11 +76,20 @@
   <si>
     <t>XGBoost</t>
   </si>
+  <si>
+    <t xml:space="preserve">1.893629e+09	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.503021e+10	</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,9 +116,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -153,30 +154,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -213,44 +190,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,198 +516,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C5:H13"/>
+  <dimension ref="C5:F13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:8" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="8" t="s">
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="6">
+        <v>-2.1384830000000002E+20</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.313</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.79400000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.79800000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.81599999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.79600000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.436</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.81899999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="6" t="s">
+      <c r="D12" s="5">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.79700000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="9">
-        <v>15.85159</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1.105507</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.56046399999999996</v>
-      </c>
-      <c r="G6" s="3">
-        <v>3.9814050000000001</v>
-      </c>
-      <c r="H6" s="3">
-        <v>-12.894212</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0.29277700000000001</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.38738299999999998</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.178346</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0.54108900000000004</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0.74337500000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="11">
-        <v>0.25854700000000003</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.35332599999999997</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0.16334599999999999</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0.50847600000000004</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0.77337800000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0.29000900000000002</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.387768</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.17983199999999999</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0.53852500000000003</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0.74580199999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0.27591199999999999</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.37426799999999999</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.17597099999999999</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0.52527299999999999</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0.758158</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0.28640500000000002</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.38220599999999999</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0.178144</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0.53516799999999998</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0.74896099999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0.48276746834745998</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0.48291176151661602</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0.239405430413207</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0.69481470072779805</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0.57684535396968695</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0.54985702755971</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.65628934303919395</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.33912662155203899</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0.74152345044489998</v>
-      </c>
-      <c r="H13" s="4">
-        <v>6.88314618339258E-2</v>
+      <c r="D13" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>

--- a/results/Models Comparison.xlsx
+++ b/results/Models Comparison.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Skin Permeation\Skin-Permeation-Main\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Projects\Skin Permeation\Skin-Permeation\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291D9925-76C0-4669-AD8D-81DF98AB022F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51793D6D-C5C9-4A4C-82FE-7036E26E2C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>Model</t>
   </si>
@@ -82,13 +82,16 @@
   <si>
     <t xml:space="preserve">1.503021e+10	</t>
   </si>
+  <si>
+    <t>After Cleaning</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -207,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -218,23 +221,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C5:F13"/>
+  <dimension ref="C3:K13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,9 +536,18 @@
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:6" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,8 +560,20 @@
       <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C6" s="8" t="s">
         <v>4</v>
       </c>
@@ -556,8 +586,20 @@
       <c r="F6" s="6">
         <v>-2.1384830000000002E+20</v>
       </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="H6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="10">
+        <v>-10.113569999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
@@ -570,8 +612,20 @@
       <c r="F7" s="5">
         <v>0.79400000000000004</v>
       </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="H7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.31822899999999998</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.47152670000000002</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.78953099999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C8" s="9" t="s">
         <v>11</v>
       </c>
@@ -584,8 +638,20 @@
       <c r="F8" s="7">
         <v>0.79800000000000004</v>
       </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="H8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.30299749999999998</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.47755540000000002</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.78411470000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
@@ -598,8 +664,20 @@
       <c r="F9" s="5">
         <v>0.81599999999999995</v>
       </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="H9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.27368799999999999</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.43755729999999998</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.81876360000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C10" s="8" t="s">
         <v>7</v>
       </c>
@@ -612,8 +690,20 @@
       <c r="F10" s="5">
         <v>0.79600000000000004</v>
       </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="H10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.30005979999999999</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.46361449999999998</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0.79653510000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C11" s="8" t="s">
         <v>8</v>
       </c>
@@ -626,8 +716,20 @@
       <c r="F11" s="5">
         <v>0.81899999999999995</v>
       </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="H11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0.28410000000000002</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.44002479999999999</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0.81671369999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C12" s="8" t="s">
         <v>5</v>
       </c>
@@ -640,8 +742,20 @@
       <c r="F12" s="5">
         <v>0.79700000000000004</v>
       </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="H12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.291406439296783</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0.46109272508309601</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0.79874248566288097</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C13" s="8" t="s">
         <v>6</v>
       </c>
@@ -652,6 +766,18 @@
         <v>0.82799999999999996</v>
       </c>
       <c r="F13" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="K13" s="11">
         <v>0.04</v>
       </c>
     </row>
